--- a/Results/_general.xlsx
+++ b/Results/_general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\TS-DES\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45346FB4-3BF6-4D96-B931-21749D4778AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1C32A4-29D5-48FC-AEAA-2C5153E41736}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="14">
   <si>
     <t>icDia</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>DESBED</t>
+  </si>
+  <si>
+    <t>14-SA</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,12 +430,15 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -451,8 +457,26 @@
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -471,8 +495,16 @@
       <c r="G4" s="3">
         <v>3.3309450389373003E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -491,8 +523,16 @@
       <c r="G5" s="3">
         <v>0.16640995495195901</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -511,8 +551,16 @@
       <c r="G6" s="3">
         <v>0.162147873558768</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -531,13 +579,24 @@
       <c r="G7" s="3">
         <v>0.21191701436402199</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -556,8 +615,26 @@
       <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -576,8 +653,15 @@
       <c r="G12" s="3">
         <v>2.5833958510259498E-3</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -596,8 +680,16 @@
       <c r="G13" s="3">
         <v>2.8269316027252901E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -616,8 +708,16 @@
       <c r="G14" s="3">
         <v>2.64916135217718E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -636,13 +736,24 @@
       <c r="G15" s="3">
         <v>1.7574296380463698E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
@@ -661,8 +772,26 @@
       <c r="G19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -681,8 +810,15 @@
       <c r="G20" s="3">
         <v>1.5671222613448999E-3</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -701,8 +837,16 @@
       <c r="G21" s="3">
         <v>3.6473649090537901</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -721,8 +865,16 @@
       <c r="G22" s="3">
         <v>2.04112973866558</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
@@ -741,9 +893,197 @@
       <c r="G23" s="3">
         <v>3.3114853995642297E-2</v>
       </c>
+      <c r="J23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C7">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D7">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E7">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F7">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G7">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C15">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D15">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E15">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F15">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G15">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C23">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D23">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E23">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F23">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G23">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K7">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -755,7 +1095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D7">
+  <conditionalFormatting sqref="L5:L7">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -767,7 +1107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E7">
+  <conditionalFormatting sqref="M5:M7">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -779,7 +1119,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F7">
+  <conditionalFormatting sqref="N5:N7">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -791,7 +1131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G7">
+  <conditionalFormatting sqref="O5:O7">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -803,7 +1143,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C15">
+  <conditionalFormatting sqref="K13:K15">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -815,7 +1155,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D15">
+  <conditionalFormatting sqref="L13:L15">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -827,7 +1167,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E15">
+  <conditionalFormatting sqref="M13:M15">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -839,7 +1179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15">
+  <conditionalFormatting sqref="N13:N15">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -851,7 +1191,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G15">
+  <conditionalFormatting sqref="O13:O15">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -863,7 +1203,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C23">
+  <conditionalFormatting sqref="K21:K23">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -875,7 +1215,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D23">
+  <conditionalFormatting sqref="L21:L23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -887,7 +1227,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E23">
+  <conditionalFormatting sqref="M21:M23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -899,7 +1239,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F23">
+  <conditionalFormatting sqref="N21:N23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -911,7 +1251,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G23">
+  <conditionalFormatting sqref="O21:O23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -931,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A20DAA1-1810-42D4-B526-7681917B49C3}">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF95DCD7-EB33-4915-8756-F74DD1D94E76}">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1964,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38E4581-69E6-4913-AD13-FE97224F5475}">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,21 +2342,81 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="1">
+        <v>8.8795464427126198E-6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.4500480191202E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.4003198419483402E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.2379172763496703E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.3808094258288399E-4</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="1">
+        <v>3.5687308462914002E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.4846839685457899E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.57344373047848E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.8122621926885201</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.49300265665411E-2</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="1">
+        <v>2.5041068934539799E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.26389153135272E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.2585568923631501E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.2910585569356401</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.7725478751132302E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="1">
+        <v>1.11874293609422E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.78334025433205E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.0621249865981099E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.1758820841296398</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9.9202483777104597E-2</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -2047,21 +2447,81 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="1">
+        <v>1.01314061682916E-6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6.6955595494594703E-4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.12814826045947E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.58788187650957E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6.4715350458560196E-5</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="1">
+        <v>5.5230332192743705E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.6653260820876498E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.4556409155440599E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>14.5460414207404</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.10192219241649E-2</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C14" s="1">
+        <v>1.13668442093899E-4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.3671605700998503E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.13887505805228E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.8825663514028199</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7.1774257328190297E-3</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C15" s="1">
+        <v>2.3148859220486801E-4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.15771233657119E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.0329313575561399E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6.6335640495892196</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.6802147916921101E-2</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -2092,20 +2552,80 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C20" s="1">
+        <v>3.4549761339054999E-6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.6251447291188901E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.7145833783509901E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.25566575818333098</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.9268879482260999E-4</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C21" s="1">
+        <v>5.3686308942458901E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.1962532491839704E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7.2754268862820395E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>401.56480609897898</v>
+      </c>
+      <c r="G21" s="1">
+        <v>11.837234481971899</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C22" s="1">
+        <v>3.7229422502898899E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6.0088854896850598E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.0851649472206698E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>278.23176907447998</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4.3386438531157996</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.5642187575529899E-4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.1496534198343299E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.1372445624650399E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>11.750545838464101</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.68211707996536E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2297,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A90A853-E748-4E17-ACE0-01D1D0A55A17}">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,21 +2855,81 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="1">
+        <v>3.1056483722118602E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.5967125324543702E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.1208151960170799E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.20644711429674001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.9915511708541797E-2</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="1">
+        <v>3.6168611168520999E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.15941322223993301</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.119038731345051</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.40431193116819</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.2155083127773001</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="1">
+        <v>3.4653518266368998E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.15678175420173401</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.11782447866457001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.3036465134500301</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.19239313778212</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="1">
+        <v>9.7601188932317798E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.27844894931580999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.206684866405486</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.4882137318108599</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.67696305370246</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -2380,21 +2960,81 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="1">
+        <v>4.4993718323742802E-4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.2338843833671001E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9.3643003841540999E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.41401928877719102</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.76372786575261E-3</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="1">
+        <v>2.3244799396604801E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.13759022049071001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.4368073115184303E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>21.3925859985697</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.66980479431755602</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C14" s="1">
+        <v>2.4351327918118001E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.14050663484502801</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9.6100874542330794E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>22.410526472737299</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.70071404457063802</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C15" s="1">
+        <v>6.0682669226215798E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.222285719277072</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.15045207140886099</v>
+      </c>
+      <c r="F15" s="1">
+        <v>55.847544207857098</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.73778376512407</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -2425,21 +3065,81 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C20" s="1">
+        <v>4.6084538203907501E-5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.1932193640632897E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.8476691983586296E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.60151521758169502</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.1389292016897598E-4</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C21" s="1">
+        <v>1.3292774123246601E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.104353996346192</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.4882595840801101E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>173.380650172749</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.0299115547553199</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C22" s="1">
+        <v>1.2132381411893701E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9.9413280645219898E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8.0765492153604998E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>158.24151318555499</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.86261935202906403</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C23" s="1">
+        <v>1.8211124881023499E-4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.14946875407378E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.0422327481170999E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.37699476548352</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.8206859550927799E-3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C7">
